--- a/padam_excel/TS 4.7 Padam Input.xlsx
+++ b/padam_excel/TS 4.7 Padam Input.xlsx
@@ -3927,7 +3927,8 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1818" workbookViewId="0">
       <pane xSplit="9060" topLeftCell="K1" activePane="topRight"/>
-      <selection pane="topRight" activeCell="M4" sqref="M4"/>
+      <selection activeCell="F1833" sqref="F1833"/>
+      <selection pane="topRight" activeCell="N1834" sqref="N1834"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
